--- a/SPREADSHEET SUBJECTS.xlsx
+++ b/SPREADSHEET SUBJECTS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>P20 Roll No.</t>
   </si>
@@ -161,12 +161,6 @@
     <t>Student 18</t>
   </si>
   <si>
-    <t>P20019</t>
-  </si>
-  <si>
-    <t>Student 19</t>
-  </si>
-  <si>
     <t>P20020</t>
   </si>
   <si>
@@ -179,17 +173,17 @@
     <t>DISTINCTION</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>YES</t>
+    <t>1st Division</t>
+  </si>
+  <si>
+    <t>2 nd division</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,12 +198,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF986801"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -238,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -246,12 +234,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,10 +530,11 @@
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.42578125" customWidth="1"/>
     <col min="11" max="11" width="41.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,13 +563,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -607,18 +601,24 @@
         <f>SUM(C2:G2)</f>
         <v>363</v>
       </c>
-      <c r="I2" s="3">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="J2" s="5" t="str">
+      <c r="I2" s="5">
+        <f>AVERAGE(C2:G2)</f>
+        <v>72.599999999999994</v>
+      </c>
+      <c r="J2" s="3" t="str">
         <f>IF(AND(C2&gt;=50,D2&gt;=50,E2&gt;O4=50,F2&gt;=50,G2&gt;=50,H2&gt;=50),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K2" s="4" t="str">
+        <f>IF(AND(J2="PASS", I2&gt;=75),"DISTINCTION","")</f>
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(AND(J2="PASS",I2&gt;=60, I2&lt;75),"1 DIV","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -644,18 +644,24 @@
         <f>SUM(C3:G3)</f>
         <v>392</v>
       </c>
-      <c r="I3" s="3">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="J3" s="5" t="str">
-        <f t="shared" ref="J3:J21" si="0">IF(AND(C3&gt;=50,D3&gt;=50,E3&gt;=50,F3&gt;=50,G3&gt;=50,H3&gt;=50),"PASS","FAIL")</f>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I20" si="0">AVERAGE(C3:G3)</f>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f t="shared" ref="J3:J20" si="1">IF(AND(C3&gt;=50,D3&gt;=50,E3&gt;=50,F3&gt;=50,G3&gt;=50,H3&gt;=50),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K3" s="4" t="str">
+        <f t="shared" ref="K3:K20" si="2">IF(AND(J3="PASS", I3&gt;=75),"DISTINCTION","")</f>
+        <v>DISTINCTION</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L20" si="3">IF(AND(J3="PASS",I3&gt;=60, I3&lt;75),"1 DIV","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -681,18 +687,24 @@
         <f>SUM(H2:H3)</f>
         <v>755</v>
       </c>
-      <c r="I4" s="3">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="J4" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>59.2</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>FAIL</v>
       </c>
-      <c r="K4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K4" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -718,18 +730,24 @@
         <f>SUM(C5:G5)</f>
         <v>386</v>
       </c>
-      <c r="I5" s="4">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="J5" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>77.2</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="K5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>DISTINCTION</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -755,18 +773,24 @@
         <f>SUM(C6:G6)</f>
         <v>398</v>
       </c>
-      <c r="I6" s="3">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="J6" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>79.599999999999994</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>DISTINCTION</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -792,18 +816,24 @@
         <f>SUM(H5:H6)</f>
         <v>784</v>
       </c>
-      <c r="I7" s="3">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="J7" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>69.2</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="3"/>
+        <v>1 DIV</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -829,18 +859,24 @@
         <f>SUM(C8:G8)</f>
         <v>364</v>
       </c>
-      <c r="I8" s="3">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="J8" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>72.8</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
+        <v>1 DIV</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -866,18 +902,24 @@
         <f>SUM(C9:G9)</f>
         <v>356</v>
       </c>
-      <c r="I9" s="3">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="J9" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>71.2</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="K9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="3"/>
+        <v>1 DIV</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -903,18 +945,24 @@
         <f>SUM(C10:G10)</f>
         <v>294</v>
       </c>
-      <c r="I10" s="3">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="J10" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I10" s="5">
+        <f t="shared" si="0"/>
+        <v>58.8</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>FAIL</v>
       </c>
-      <c r="K10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -937,21 +985,27 @@
         <v>79</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ref="H10:H21" si="1">SUM(C11:G11)</f>
+        <f t="shared" ref="H11:H20" si="4">SUM(C11:G11)</f>
         <v>433</v>
       </c>
-      <c r="I11" s="3">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="J11" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I11" s="5">
+        <f t="shared" si="0"/>
+        <v>86.6</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="K11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>DISTINCTION</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -974,21 +1028,27 @@
         <v>80</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>348</v>
       </c>
-      <c r="I12" s="3">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="K12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="3"/>
+        <v>1 DIV</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1011,21 +1071,27 @@
         <v>78</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>317</v>
       </c>
-      <c r="I13" s="3">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>63.4</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>FAIL</v>
       </c>
-      <c r="K13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1048,21 +1114,27 @@
         <v>83</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>436</v>
       </c>
-      <c r="I14" s="3">
-        <v>0.872</v>
-      </c>
-      <c r="J14" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I14" s="5">
+        <f t="shared" si="0"/>
+        <v>87.2</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="K14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>DISTINCTION</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1085,21 +1157,27 @@
         <v>88</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>413</v>
       </c>
-      <c r="I15" s="3">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="J15" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I15" s="5">
+        <f t="shared" si="0"/>
+        <v>82.6</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="K15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>DISTINCTION</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1122,21 +1200,27 @@
         <v>73</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>307</v>
       </c>
-      <c r="I16" s="3">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="J16" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I16" s="5">
+        <f t="shared" si="0"/>
+        <v>61.4</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="K16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="3"/>
+        <v>1 DIV</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1159,21 +1243,27 @@
         <v>67</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>373</v>
       </c>
-      <c r="I17" s="3">
-        <v>0.746</v>
-      </c>
-      <c r="J17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I17" s="5">
+        <f t="shared" si="0"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="K17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="3"/>
+        <v>1 DIV</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1181,36 +1271,42 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>85</v>
+        <v>63.325000000000003</v>
       </c>
       <c r="D18" s="2">
-        <v>91</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="E18" s="2">
-        <v>78</v>
+        <v>73.05</v>
       </c>
       <c r="F18" s="2">
-        <v>84</v>
+        <v>79.2</v>
       </c>
       <c r="G18" s="2">
-        <v>86</v>
+        <v>80.325000000000003</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
-        <v>424</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="J18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="K18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f>SUM(C18:G18)</f>
+        <v>368.5</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="0"/>
+        <v>73.7</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f>IF(AND(C18&gt;=50,D18&gt;=50,E18&gt;O20=50,F18&gt;=50,G18&gt;=50,H18&gt;=50),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="K18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -1218,36 +1314,42 @@
         <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>70</v>
+        <v>62.664705882352898</v>
       </c>
       <c r="D19" s="2">
-        <v>66</v>
+        <v>72.258823529411799</v>
       </c>
       <c r="E19" s="2">
-        <v>54</v>
+        <v>73.004411764705907</v>
       </c>
       <c r="F19" s="2">
-        <v>79</v>
+        <v>79.907352941176498</v>
       </c>
       <c r="G19" s="2">
-        <v>68</v>
+        <v>81.208823529411802</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
-        <v>337</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="J19" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>SUM(C19:G19)</f>
+        <v>369.0441176470589</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="0"/>
+        <v>73.808823529411782</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" ref="J19" si="5">IF(AND(C19&gt;=50,D19&gt;=50,E19&gt;=50,F19&gt;=50,G19&gt;=50,H19&gt;=50),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="K19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="3"/>
+        <v>1 DIV</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1255,70 +1357,39 @@
         <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F20" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G20" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
-        <v>266</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="J20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="K20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2">
-        <v>82</v>
-      </c>
-      <c r="D21" s="2">
-        <v>87</v>
-      </c>
-      <c r="E21" s="2">
-        <v>91</v>
-      </c>
-      <c r="F21" s="2">
-        <v>89</v>
-      </c>
-      <c r="G21" s="2">
-        <v>95</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>444</v>
       </c>
-      <c r="I21" s="3">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="J21" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="I20" s="5">
+        <f t="shared" si="0"/>
+        <v>88.8</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="K21" t="s">
-        <v>52</v>
+      <c r="K20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>DISTINCTION</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/SPREADSHEET SUBJECTS.xlsx
+++ b/SPREADSHEET SUBJECTS.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>P20 Roll No.</t>
   </si>
@@ -177,13 +178,76 @@
   </si>
   <si>
     <t>2 nd division</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student1 </t>
+  </si>
+  <si>
+    <t>Student2</t>
+  </si>
+  <si>
+    <t>Student3</t>
+  </si>
+  <si>
+    <t>Student4</t>
+  </si>
+  <si>
+    <t>Student5</t>
+  </si>
+  <si>
+    <t>Student6</t>
+  </si>
+  <si>
+    <t>Student7</t>
+  </si>
+  <si>
+    <t>Student8</t>
+  </si>
+  <si>
+    <t>Student9</t>
+  </si>
+  <si>
+    <t>Student10</t>
+  </si>
+  <si>
+    <t>Student11</t>
+  </si>
+  <si>
+    <t>Student12</t>
+  </si>
+  <si>
+    <t>Student13</t>
+  </si>
+  <si>
+    <t>Student14</t>
+  </si>
+  <si>
+    <t>Student15</t>
+  </si>
+  <si>
+    <t>Student16</t>
+  </si>
+  <si>
+    <t>Student17</t>
+  </si>
+  <si>
+    <t>Student18</t>
+  </si>
+  <si>
+    <t>Student19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +268,21 @@
       <color rgb="FF383A42"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,6 +316,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -521,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,4 +1481,343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Sheet1!A1:L20,8,0)</f>
+        <v>363</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP(A2,Sheet1!A2:L20,9,0)</f>
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Sheet1!A2:L21,8,0)</f>
+        <v>392</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP(A3,Sheet1!A3:L21,9,0)</f>
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Sheet1!A3:L22,8,0)</f>
+        <v>755</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP(A4,Sheet1!A4:L22,9,0)</f>
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Sheet1!A4:L23,8,0)</f>
+        <v>386</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP(A5,Sheet1!A5:L23,9,0)</f>
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Sheet1!A5:L24,8,0)</f>
+        <v>398</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP(A6,Sheet1!A6:L24,9,0)</f>
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,Sheet1!A6:L25,8,0)</f>
+        <v>784</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP(A7,Sheet1!A7:L25,9,0)</f>
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(A8,Sheet1!A7:L26,8,0)</f>
+        <v>364</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP(A8,Sheet1!A8:L26,9,0)</f>
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <f>VLOOKUP(A9,Sheet1!A8:L27,8,0)</f>
+        <v>356</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP(A9,Sheet1!A9:L27,9,0)</f>
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <f>VLOOKUP(A10,Sheet1!A9:L28,8,0)</f>
+        <v>294</v>
+      </c>
+      <c r="D10">
+        <f>VLOOKUP(A10,Sheet1!A10:L28,9,0)</f>
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(A11,Sheet1!A10:L29,8,0)</f>
+        <v>433</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP(A11,Sheet1!A11:L29,9,0)</f>
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP(A12,Sheet1!A11:L30,8,0)</f>
+        <v>348</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP(A12,Sheet1!A12:L30,9,0)</f>
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(A13,Sheet1!A12:L31,8,0)</f>
+        <v>317</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP(A13,Sheet1!A13:L31,9,0)</f>
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP(A14,Sheet1!A13:L32,8,0)</f>
+        <v>436</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP(A14,Sheet1!A14:L32,9,0)</f>
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(A15,Sheet1!A14:L33,8,0)</f>
+        <v>413</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP(A15,Sheet1!A15:L33,9,0)</f>
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <f>VLOOKUP(A16,Sheet1!A15:L34,8,0)</f>
+        <v>307</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP(A16,Sheet1!A16:L34,9,0)</f>
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <f>VLOOKUP(A17,Sheet1!A16:L35,8,0)</f>
+        <v>373</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP(A17,Sheet1!A17:L35,9,0)</f>
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP(A18,Sheet1!A17:L36,8,0)</f>
+        <v>368.5</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP(A18,Sheet1!A18:L36,9,0)</f>
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <f>VLOOKUP(A19,Sheet1!A18:L37,8,0)</f>
+        <v>369.0441176470589</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP(A19,Sheet1!A19:L37,9,0)</f>
+        <v>73.808823529411782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <f>VLOOKUP(A20,Sheet1!A19:L38,8,0)</f>
+        <v>444</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP(A20,Sheet1!A20:L38,9,0)</f>
+        <v>88.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>